--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="568">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1228,8 +1228,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1742,6 +1742,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -12221,16 +12225,16 @@
         <v>93</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>391</v>
+        <v>554</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>393</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>395</v>
@@ -12300,7 +12304,7 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>398</v>
@@ -12317,10 +12321,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12346,13 +12350,13 @@
         <v>198</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>405</v>
@@ -12383,10 +12387,10 @@
         <v>415</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>82</v>
@@ -12404,7 +12408,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12439,10 +12443,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12526,7 +12530,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12561,10 +12565,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12590,10 +12594,10 @@
         <v>83</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>471</v>
@@ -12648,7 +12652,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-date-of-birth.xlsx
+++ b/output/StructureDefinition-cv-date-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
